--- a/data/validation/metadata/dictionary.xlsx
+++ b/data/validation/metadata/dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ge23nur\PycharmProjects\heat_profiles\validation_cooling\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\escobarm\Desktop\thesis\validation\data\validation\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE52C387-6CB1-45BF-915D-F60E28B0170D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9615D655-C9AD-4ED8-B50C-51D44D90B0F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{C8ED285B-9495-4E46-8364-C4710DA83E43}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="29692" windowHeight="11829" xr2:uid="{C8ED285B-9495-4E46-8364-C4710DA83E43}"/>
   </bookViews>
   <sheets>
     <sheet name="data_dictionary" sheetId="2" r:id="rId1"/>
@@ -19,8 +19,7 @@
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">data_dictionary!$A$1:$F$270</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2226,21 +2225,21 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A1CB37A5-F95B-4B93-9FFD-D1A836AF4896}" name="data_dictionary" displayName="data_dictionary" ref="A1:F270" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:F270" xr:uid="{A1CB37A5-F95B-4B93-9FFD-D1A836AF4896}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{111D8F83-EF4B-4923-BE32-55945216CFF4}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{ABD662D5-54BC-4A10-AE94-0FAAC125ACF1}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{4D548B5B-D39F-48B6-9578-B3B65FE8399A}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{31042E36-388B-4B1B-B911-235518769B38}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{CABD0A4A-7F43-446A-9819-BACEC42780D1}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{D7FB7EE4-DA75-4AF1-8FEE-E5C8C9C03918}" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{111D8F83-EF4B-4923-BE32-55945216CFF4}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{ABD662D5-54BC-4A10-AE94-0FAAC125ACF1}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{4D548B5B-D39F-48B6-9578-B3B65FE8399A}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{31042E36-388B-4B1B-B911-235518769B38}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{CABD0A4A-7F43-446A-9819-BACEC42780D1}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{D7FB7EE4-DA75-4AF1-8FEE-E5C8C9C03918}" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2278,7 +2277,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2384,7 +2383,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2526,7 +2525,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2536,19 +2535,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D71C867-DFB0-4918-A91C-395744192D06}">
   <dimension ref="A1:F270"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.15234375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="62" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="80.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.84375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="80.921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2568,7 +2567,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2588,7 +2587,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -2608,7 +2607,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -2628,7 +2627,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -2648,7 +2647,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -2668,7 +2667,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -2688,7 +2687,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -2708,7 +2707,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -2728,7 +2727,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2748,7 +2747,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -2768,7 +2767,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -2788,7 +2787,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2808,7 +2807,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2828,7 +2827,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -2848,7 +2847,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -2868,7 +2867,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -2888,7 +2887,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -2908,7 +2907,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -2928,7 +2927,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -2948,7 +2947,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -2968,7 +2967,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -2988,7 +2987,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -3008,7 +3007,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -3028,7 +3027,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -3048,7 +3047,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -3068,7 +3067,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -3088,7 +3087,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -3108,7 +3107,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -3128,7 +3127,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -3148,7 +3147,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -3168,7 +3167,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -3188,7 +3187,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -3208,7 +3207,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -3228,7 +3227,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>12</v>
       </c>
@@ -3248,7 +3247,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>12</v>
       </c>
@@ -3268,7 +3267,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>12</v>
       </c>
@@ -3288,7 +3287,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>12</v>
       </c>
@@ -3308,7 +3307,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>12</v>
       </c>
@@ -3328,7 +3327,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>12</v>
       </c>
@@ -3348,7 +3347,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>12</v>
       </c>
@@ -3368,7 +3367,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>12</v>
       </c>
@@ -3388,7 +3387,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>12</v>
       </c>
@@ -3408,7 +3407,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>12</v>
       </c>
@@ -3428,7 +3427,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>12</v>
       </c>
@@ -3448,7 +3447,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>12</v>
       </c>
@@ -3468,7 +3467,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>12</v>
       </c>
@@ -3488,7 +3487,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -3508,7 +3507,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>12</v>
       </c>
@@ -3528,7 +3527,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>12</v>
       </c>
@@ -3548,7 +3547,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>12</v>
       </c>
@@ -3568,7 +3567,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>12</v>
       </c>
@@ -3588,7 +3587,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>12</v>
       </c>
@@ -3608,7 +3607,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>12</v>
       </c>
@@ -3628,7 +3627,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>12</v>
       </c>
@@ -3648,7 +3647,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>12</v>
       </c>
@@ -3668,7 +3667,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>12</v>
       </c>
@@ -3688,7 +3687,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>12</v>
       </c>
@@ -3708,7 +3707,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>12</v>
       </c>
@@ -3728,7 +3727,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>12</v>
       </c>
@@ -3748,7 +3747,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>12</v>
       </c>
@@ -3768,7 +3767,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>12</v>
       </c>
@@ -3788,7 +3787,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>12</v>
       </c>
@@ -3808,7 +3807,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>12</v>
       </c>
@@ -3828,7 +3827,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>12</v>
       </c>
@@ -3848,7 +3847,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>12</v>
       </c>
@@ -3868,7 +3867,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>12</v>
       </c>
@@ -3888,7 +3887,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>12</v>
       </c>
@@ -3908,7 +3907,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>12</v>
       </c>
@@ -3928,7 +3927,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>12</v>
       </c>
@@ -3948,7 +3947,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>12</v>
       </c>
@@ -3968,7 +3967,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>12</v>
       </c>
@@ -3988,7 +3987,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>12</v>
       </c>
@@ -4008,7 +4007,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>12</v>
       </c>
@@ -4028,7 +4027,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>12</v>
       </c>
@@ -4048,7 +4047,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>12</v>
       </c>
@@ -4068,7 +4067,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>12</v>
       </c>
@@ -4088,7 +4087,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>12</v>
       </c>
@@ -4108,7 +4107,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>12</v>
       </c>
@@ -4128,7 +4127,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>12</v>
       </c>
@@ -4148,7 +4147,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>12</v>
       </c>
@@ -4168,7 +4167,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>12</v>
       </c>
@@ -4188,7 +4187,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>12</v>
       </c>
@@ -4208,7 +4207,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>12</v>
       </c>
@@ -4228,7 +4227,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>12</v>
       </c>
@@ -4248,7 +4247,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>12</v>
       </c>
@@ -4268,7 +4267,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>12</v>
       </c>
@@ -4288,7 +4287,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>12</v>
       </c>
@@ -4308,7 +4307,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>12</v>
       </c>
@@ -4328,7 +4327,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>12</v>
       </c>
@@ -4348,7 +4347,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>12</v>
       </c>
@@ -4368,7 +4367,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>12</v>
       </c>
@@ -4388,7 +4387,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>12</v>
       </c>
@@ -4408,7 +4407,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
         <v>12</v>
       </c>
@@ -4428,7 +4427,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>12</v>
       </c>
@@ -4448,7 +4447,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
         <v>12</v>
       </c>
@@ -4468,7 +4467,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>12</v>
       </c>
@@ -4488,7 +4487,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>12</v>
       </c>
@@ -4508,7 +4507,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>12</v>
       </c>
@@ -4528,7 +4527,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
         <v>12</v>
       </c>
@@ -4548,7 +4547,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
         <v>12</v>
       </c>
@@ -4568,7 +4567,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
         <v>12</v>
       </c>
@@ -4588,7 +4587,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
         <v>12</v>
       </c>
@@ -4608,7 +4607,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
         <v>12</v>
       </c>
@@ -4628,7 +4627,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
         <v>12</v>
       </c>
@@ -4648,7 +4647,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
         <v>12</v>
       </c>
@@ -4668,7 +4667,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
         <v>12</v>
       </c>
@@ -4688,7 +4687,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
         <v>12</v>
       </c>
@@ -4708,7 +4707,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
         <v>12</v>
       </c>
@@ -4728,7 +4727,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
         <v>12</v>
       </c>
@@ -4748,7 +4747,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
         <v>12</v>
       </c>
@@ -4768,7 +4767,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
         <v>12</v>
       </c>
@@ -4788,7 +4787,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
         <v>12</v>
       </c>
@@ -4808,7 +4807,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
         <v>12</v>
       </c>
@@ -4828,7 +4827,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
         <v>12</v>
       </c>
@@ -4848,7 +4847,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
         <v>12</v>
       </c>
@@ -4868,7 +4867,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
         <v>12</v>
       </c>
@@ -4888,7 +4887,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
         <v>12</v>
       </c>
@@ -4908,7 +4907,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
         <v>12</v>
       </c>
@@ -4928,7 +4927,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
         <v>12</v>
       </c>
@@ -4948,7 +4947,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
         <v>12</v>
       </c>
@@ -4968,7 +4967,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
         <v>12</v>
       </c>
@@ -4988,7 +4987,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
         <v>12</v>
       </c>
@@ -5008,7 +5007,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
         <v>12</v>
       </c>
@@ -5028,7 +5027,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
         <v>12</v>
       </c>
@@ -5048,7 +5047,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
         <v>12</v>
       </c>
@@ -5068,7 +5067,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
         <v>12</v>
       </c>
@@ -5088,7 +5087,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
         <v>12</v>
       </c>
@@ -5108,7 +5107,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
         <v>12</v>
       </c>
@@ -5128,7 +5127,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
         <v>12</v>
       </c>
@@ -5148,7 +5147,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
         <v>12</v>
       </c>
@@ -5168,7 +5167,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
         <v>12</v>
       </c>
@@ -5188,7 +5187,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
         <v>12</v>
       </c>
@@ -5208,7 +5207,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
         <v>12</v>
       </c>
@@ -5228,7 +5227,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
         <v>12</v>
       </c>
@@ -5248,7 +5247,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
         <v>12</v>
       </c>
@@ -5268,7 +5267,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
         <v>12</v>
       </c>
@@ -5288,7 +5287,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
         <v>12</v>
       </c>
@@ -5308,7 +5307,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
         <v>12</v>
       </c>
@@ -5328,7 +5327,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
         <v>12</v>
       </c>
@@ -5348,7 +5347,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
         <v>12</v>
       </c>
@@ -5368,7 +5367,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
         <v>12</v>
       </c>
@@ -5388,7 +5387,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
         <v>12</v>
       </c>
@@ -5408,7 +5407,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
         <v>12</v>
       </c>
@@ -5428,7 +5427,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
         <v>12</v>
       </c>
@@ -5448,7 +5447,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
         <v>12</v>
       </c>
@@ -5468,7 +5467,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A147" t="s">
         <v>12</v>
       </c>
@@ -5488,7 +5487,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A148" t="s">
         <v>12</v>
       </c>
@@ -5508,7 +5507,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
         <v>12</v>
       </c>
@@ -5528,7 +5527,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A150" t="s">
         <v>12</v>
       </c>
@@ -5548,7 +5547,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A151" t="s">
         <v>12</v>
       </c>
@@ -5568,7 +5567,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A152" t="s">
         <v>12</v>
       </c>
@@ -5588,7 +5587,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A153" t="s">
         <v>12</v>
       </c>
@@ -5608,7 +5607,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A154" t="s">
         <v>12</v>
       </c>
@@ -5628,7 +5627,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A155" t="s">
         <v>12</v>
       </c>
@@ -5648,7 +5647,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A156" t="s">
         <v>12</v>
       </c>
@@ -5668,7 +5667,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A157" t="s">
         <v>463</v>
       </c>
@@ -5688,7 +5687,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A158" t="s">
         <v>463</v>
       </c>
@@ -5708,7 +5707,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A159" t="s">
         <v>463</v>
       </c>
@@ -5728,7 +5727,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A160" t="s">
         <v>463</v>
       </c>
@@ -5748,7 +5747,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A161" t="s">
         <v>463</v>
       </c>
@@ -5768,7 +5767,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
         <v>463</v>
       </c>
@@ -5788,7 +5787,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A163" t="s">
         <v>463</v>
       </c>
@@ -5808,7 +5807,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
         <v>463</v>
       </c>
@@ -5828,7 +5827,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
         <v>463</v>
       </c>
@@ -5848,7 +5847,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A166" t="s">
         <v>463</v>
       </c>
@@ -5868,7 +5867,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A167" t="s">
         <v>463</v>
       </c>
@@ -5888,7 +5887,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A168" t="s">
         <v>463</v>
       </c>
@@ -5908,7 +5907,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A169" t="s">
         <v>463</v>
       </c>
@@ -5928,7 +5927,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A170" t="s">
         <v>463</v>
       </c>
@@ -5948,7 +5947,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A171" t="s">
         <v>463</v>
       </c>
@@ -5968,7 +5967,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A172" t="s">
         <v>463</v>
       </c>
@@ -5988,7 +5987,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A173" t="s">
         <v>463</v>
       </c>
@@ -6008,7 +6007,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A174" t="s">
         <v>463</v>
       </c>
@@ -6028,7 +6027,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A175" t="s">
         <v>463</v>
       </c>
@@ -6048,7 +6047,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A176" t="s">
         <v>463</v>
       </c>
@@ -6068,7 +6067,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A177" t="s">
         <v>463</v>
       </c>
@@ -6088,7 +6087,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A178" t="s">
         <v>463</v>
       </c>
@@ -6108,7 +6107,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A179" t="s">
         <v>463</v>
       </c>
@@ -6128,7 +6127,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A180" t="s">
         <v>463</v>
       </c>
@@ -6148,7 +6147,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A181" t="s">
         <v>463</v>
       </c>
@@ -6168,7 +6167,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A182" t="s">
         <v>463</v>
       </c>
@@ -6188,7 +6187,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A183" t="s">
         <v>463</v>
       </c>
@@ -6208,7 +6207,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A184" t="s">
         <v>463</v>
       </c>
@@ -6228,7 +6227,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A185" t="s">
         <v>463</v>
       </c>
@@ -6248,7 +6247,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A186" t="s">
         <v>463</v>
       </c>
@@ -6268,7 +6267,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A187" t="s">
         <v>463</v>
       </c>
@@ -6288,7 +6287,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A188" t="s">
         <v>463</v>
       </c>
@@ -6308,7 +6307,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A189" t="s">
         <v>463</v>
       </c>
@@ -6328,7 +6327,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A190" t="s">
         <v>463</v>
       </c>
@@ -6348,7 +6347,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A191" t="s">
         <v>463</v>
       </c>
@@ -6368,7 +6367,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A192" t="s">
         <v>463</v>
       </c>
@@ -6388,7 +6387,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A193" t="s">
         <v>463</v>
       </c>
@@ -6408,7 +6407,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A194" t="s">
         <v>463</v>
       </c>
@@ -6428,7 +6427,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A195" t="s">
         <v>463</v>
       </c>
@@ -6448,7 +6447,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A196" t="s">
         <v>463</v>
       </c>
@@ -6468,7 +6467,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A197" t="s">
         <v>463</v>
       </c>
@@ -6488,7 +6487,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A198" t="s">
         <v>463</v>
       </c>
@@ -6508,7 +6507,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A199" t="s">
         <v>463</v>
       </c>
@@ -6528,7 +6527,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A200" t="s">
         <v>463</v>
       </c>
@@ -6548,7 +6547,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A201" t="s">
         <v>463</v>
       </c>
@@ -6568,7 +6567,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A202" t="s">
         <v>463</v>
       </c>
@@ -6588,7 +6587,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A203" t="s">
         <v>463</v>
       </c>
@@ -6608,7 +6607,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A204" t="s">
         <v>463</v>
       </c>
@@ -6628,7 +6627,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A205" t="s">
         <v>463</v>
       </c>
@@ -6648,7 +6647,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A206" t="s">
         <v>463</v>
       </c>
@@ -6668,7 +6667,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A207" t="s">
         <v>463</v>
       </c>
@@ -6688,7 +6687,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A208" t="s">
         <v>463</v>
       </c>
@@ -6708,7 +6707,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A209" t="s">
         <v>463</v>
       </c>
@@ -6728,7 +6727,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A210" t="s">
         <v>463</v>
       </c>
@@ -6748,7 +6747,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A211" t="s">
         <v>463</v>
       </c>
@@ -6768,7 +6767,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A212" t="s">
         <v>463</v>
       </c>
@@ -6788,7 +6787,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A213" t="s">
         <v>463</v>
       </c>
@@ -6808,7 +6807,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A214" t="s">
         <v>463</v>
       </c>
@@ -6828,7 +6827,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A215" t="s">
         <v>463</v>
       </c>
@@ -6848,7 +6847,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A216" t="s">
         <v>463</v>
       </c>
@@ -6868,7 +6867,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A217" t="s">
         <v>463</v>
       </c>
@@ -6888,7 +6887,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A218" t="s">
         <v>463</v>
       </c>
@@ -6908,7 +6907,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A219" t="s">
         <v>463</v>
       </c>
@@ -6928,7 +6927,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A220" t="s">
         <v>463</v>
       </c>
@@ -6948,7 +6947,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A221" t="s">
         <v>463</v>
       </c>
@@ -6968,7 +6967,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A222" t="s">
         <v>463</v>
       </c>
@@ -6988,7 +6987,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A223" t="s">
         <v>463</v>
       </c>
@@ -7008,7 +7007,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A224" t="s">
         <v>463</v>
       </c>
@@ -7028,7 +7027,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A225" t="s">
         <v>463</v>
       </c>
@@ -7048,7 +7047,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A226" t="s">
         <v>463</v>
       </c>
@@ -7068,7 +7067,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A227" t="s">
         <v>463</v>
       </c>
@@ -7088,7 +7087,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A228" t="s">
         <v>463</v>
       </c>
@@ -7108,7 +7107,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A229" t="s">
         <v>463</v>
       </c>
@@ -7128,7 +7127,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A230" t="s">
         <v>463</v>
       </c>
@@ -7148,7 +7147,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A231" t="s">
         <v>463</v>
       </c>
@@ -7168,7 +7167,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A232" t="s">
         <v>463</v>
       </c>
@@ -7188,7 +7187,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A233" t="s">
         <v>463</v>
       </c>
@@ -7208,7 +7207,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A234" t="s">
         <v>463</v>
       </c>
@@ -7228,7 +7227,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A235" t="s">
         <v>463</v>
       </c>
@@ -7248,7 +7247,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A236" t="s">
         <v>463</v>
       </c>
@@ -7268,7 +7267,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A237" t="s">
         <v>463</v>
       </c>
@@ -7288,7 +7287,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A238" t="s">
         <v>463</v>
       </c>
@@ -7308,7 +7307,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A239" t="s">
         <v>463</v>
       </c>
@@ -7328,7 +7327,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A240" t="s">
         <v>463</v>
       </c>
@@ -7348,7 +7347,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A241" t="s">
         <v>463</v>
       </c>
@@ -7368,7 +7367,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A242" t="s">
         <v>463</v>
       </c>
@@ -7388,7 +7387,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A243" t="s">
         <v>463</v>
       </c>
@@ -7408,7 +7407,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A244" t="s">
         <v>463</v>
       </c>
@@ -7428,7 +7427,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A245" t="s">
         <v>463</v>
       </c>
@@ -7448,7 +7447,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A246" t="s">
         <v>463</v>
       </c>
@@ -7468,7 +7467,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A247" t="s">
         <v>463</v>
       </c>
@@ -7488,7 +7487,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A248" t="s">
         <v>463</v>
       </c>
@@ -7508,7 +7507,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A249" t="s">
         <v>463</v>
       </c>
@@ -7528,7 +7527,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A250" t="s">
         <v>463</v>
       </c>
@@ -7548,7 +7547,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A251" t="s">
         <v>463</v>
       </c>
@@ -7568,7 +7567,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A252" t="s">
         <v>463</v>
       </c>
@@ -7588,7 +7587,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A253" t="s">
         <v>463</v>
       </c>
@@ -7608,7 +7607,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A254" t="s">
         <v>463</v>
       </c>
@@ -7628,7 +7627,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A255" t="s">
         <v>463</v>
       </c>
@@ -7648,7 +7647,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A256" t="s">
         <v>463</v>
       </c>
@@ -7668,7 +7667,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A257" t="s">
         <v>463</v>
       </c>
@@ -7688,7 +7687,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A258" t="s">
         <v>463</v>
       </c>
@@ -7708,7 +7707,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A259" t="s">
         <v>463</v>
       </c>
@@ -7728,7 +7727,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A260" t="s">
         <v>463</v>
       </c>
@@ -7748,7 +7747,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A261" t="s">
         <v>463</v>
       </c>
@@ -7768,7 +7767,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A262" t="s">
         <v>463</v>
       </c>
@@ -7788,7 +7787,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A263" t="s">
         <v>463</v>
       </c>
@@ -7808,7 +7807,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A264" t="s">
         <v>463</v>
       </c>
@@ -7828,7 +7827,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A265" t="s">
         <v>463</v>
       </c>
@@ -7848,7 +7847,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A266" t="s">
         <v>463</v>
       </c>
@@ -7868,7 +7867,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A267" t="s">
         <v>463</v>
       </c>
@@ -7888,7 +7887,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A268" t="s">
         <v>463</v>
       </c>
@@ -7908,7 +7907,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A269" t="s">
         <v>463</v>
       </c>
@@ -7928,7 +7927,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A270" t="s">
         <v>463</v>
       </c>
@@ -7962,7 +7961,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
